--- a/static/excel_file/excel_format.xlsx
+++ b/static/excel_file/excel_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desicrew\flask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desicrew\flask\project_1\static\excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68981791-2E63-4932-B841-FD1BAE669F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CA351-8475-47FD-B7E3-972E90230F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>Billable/Backup/Trainee/Bench/Long term leave</t>
   </si>
   <si>
-    <t>Joining Date</t>
-  </si>
-  <si>
     <t>Exp as of Today</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Joining Date(DD-MM-YYYY)</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,19 +566,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
